--- a/margen.xlsx
+++ b/margen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431BA0EC-43F6-4A87-91DC-B3C0BC62A088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9F8B75-6D33-418B-BC29-E739DC71C654}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,18 @@
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
     <sheet name="Información" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1136,7 +1147,7 @@
   <dimension ref="A1:C227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
